--- a/ex-sql1.xlsx
+++ b/ex-sql1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\Nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86A8EA-0BA6-4418-BAE6-397B28A2B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC6465-4465-4F22-A07E-869D429AF368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39C6FF4E-DFA6-4DBE-AC6E-57EC9FD3964B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="646">
   <si>
     <t>type</t>
   </si>
@@ -417,6 +417,1563 @@
   </si>
   <si>
     <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SHOW','W2','Coming Soon', 'Phim sắp chiếu' );</t>
+  </si>
+  <si>
+    <t>CINEMA</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CGV Ha Noi</t>
+  </si>
+  <si>
+    <t>CGV Hà Nội</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CGV Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>CGV Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>CGV Da Nang</t>
+  </si>
+  <si>
+    <t>CGV Đà Nẵng</t>
+  </si>
+  <si>
+    <t>CGV Can Tho</t>
+  </si>
+  <si>
+    <t>CGV Cần Thơ</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CGV Da Lat</t>
+  </si>
+  <si>
+    <t>CGV Đà Lạt</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('CINEMA','C1','CGV Ha Noi', 'CGV Hà Nội' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('CINEMA','C2','CGV Ho Chi Minh', 'CGV Hồ Chí Minh' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('CINEMA','C3','CGV Da Nang', 'CGV Đà Nẵng' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('CINEMA','C4','CGV Can Tho', 'CGV Cần Thơ' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('CINEMA','C5','CGV Da Lati', 'CGV Đà Lạt' );</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>DOBLY ATMOS</t>
+  </si>
+  <si>
+    <t>CHRISTIE</t>
+  </si>
+  <si>
+    <t>2D Digital</t>
+  </si>
+  <si>
+    <t>3D Digital</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('TECHNOLOGY','T1','DOBLY ATMOS', 'DOBLY ATMOS' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('TECHNOLOGY','T2','CHRISTIE', 'CHRISTIE' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('TECHNOLOGY','T3','2D Digital', '2D Digital' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('TECHNOLOGY','T4','3D Digital', '3D Digital' );</t>
+  </si>
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>SA3</t>
+  </si>
+  <si>
+    <t>SA4</t>
+  </si>
+  <si>
+    <t>SA5</t>
+  </si>
+  <si>
+    <t>SA6</t>
+  </si>
+  <si>
+    <t>SA7</t>
+  </si>
+  <si>
+    <t>SA8</t>
+  </si>
+  <si>
+    <t>SA9</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>SB2</t>
+  </si>
+  <si>
+    <t>SB3</t>
+  </si>
+  <si>
+    <t>SB4</t>
+  </si>
+  <si>
+    <t>SB5</t>
+  </si>
+  <si>
+    <t>SB6</t>
+  </si>
+  <si>
+    <t>SB7</t>
+  </si>
+  <si>
+    <t>SB8</t>
+  </si>
+  <si>
+    <t>SB9</t>
+  </si>
+  <si>
+    <t>SB10</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>SC5</t>
+  </si>
+  <si>
+    <t>SC6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>SC7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>SC8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>SC9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>SC10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SD4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>SD6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>SD8</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>SD9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>SD10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>SE2</t>
+  </si>
+  <si>
+    <t>SE3</t>
+  </si>
+  <si>
+    <t>SE4</t>
+  </si>
+  <si>
+    <t>SE5</t>
+  </si>
+  <si>
+    <t>SE6</t>
+  </si>
+  <si>
+    <t>SE7</t>
+  </si>
+  <si>
+    <t>SE8</t>
+  </si>
+  <si>
+    <t>SE9</t>
+  </si>
+  <si>
+    <t>SE10</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>SF1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SF2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>SF3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>SF4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>SF5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>SF7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>SF8</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>SF9</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>SF10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>SG1</t>
+  </si>
+  <si>
+    <t>SG2</t>
+  </si>
+  <si>
+    <t>SG3</t>
+  </si>
+  <si>
+    <t>SG4</t>
+  </si>
+  <si>
+    <t>SG5</t>
+  </si>
+  <si>
+    <t>SG6</t>
+  </si>
+  <si>
+    <t>SG7</t>
+  </si>
+  <si>
+    <t>SG8</t>
+  </si>
+  <si>
+    <t>SG9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>SG10</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>SH2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>SH3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>SH4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>SH5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>SH6</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>SH7</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>SH8</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>SH9</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>SH10</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>SJ1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>SJ2</t>
+  </si>
+  <si>
+    <t>SJ3</t>
+  </si>
+  <si>
+    <t>SJ4</t>
+  </si>
+  <si>
+    <t>SJ5</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>SK6</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>SK7</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>SK8</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>SK9</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>SK10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA1','A1', 'A1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA2','A2', 'A2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA3','A3', 'A3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA4','A4', 'A4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA5','A5', 'A5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA6','A6', 'A6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA7','A7', 'A7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA8','A8', 'A8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA9','A9', 'A9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SA10','A10', 'A10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB1','B1', 'B1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB2','B2', 'B2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB3','B3', 'B3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB4','B4', 'B4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB5','B5', 'B5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB6','B6', 'B6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB7','B7', 'B7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB8','B8', 'B8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB9','B9', 'B9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SB10','B10', 'B10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC1','C1', 'C1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC2','C2', 'C2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC3','C3', 'C3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC4','C4', 'C4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC5','C5', 'C5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC6','C6', 'C6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC7','C7', 'C7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC8','C8', 'C8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC9','C9', 'C9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SC10','C10', 'C10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD1','D1', 'D1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD2','D2', 'D2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD3','D3', 'D3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD4','D4', 'D4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD5','D5', 'D5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD6','D6', 'D6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD7','D7', 'D7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD8','D8', 'D8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD9','D9', 'D9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SD10','D10', 'D10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE1','E1', 'E1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE2','E2', 'E2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE3','E3', 'E3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE4','E4', 'E4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE5','E5', 'E5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE6','E6', 'E6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE7','E7', 'E7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE8','E8', 'E8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE9','E9', 'E9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SE10','E10', 'E10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF1','F1', 'F1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF2','F2', 'F2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF3','F3', 'F3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF4','F4', 'F4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF5','F5', 'F5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF6','F6', 'F6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF7','F7', 'F7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF8','F8', 'F8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF9','F9', 'F9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SF10','F10', 'F10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG1','G1', 'G1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG2','G2', 'G2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG3','G3', 'G3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG4','G4', 'G4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG5','G5', 'G5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG6','G6', 'G6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG7','G7', 'G7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG8','G8', 'G8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG9','G9', 'G9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SG10','G10', 'G10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH1','H1', 'H1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH2','H2', 'H2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH3','H3', 'H3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH4','H4', 'H4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH5','H5', 'H5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH6','H6', 'H6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH7','H7', 'H7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH8','H8', 'H8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH9','H9', 'H9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SH10','H10', 'H10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ1','J1', 'J1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ2','J2', 'J2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ3','J3', 'J3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ4','J4', 'J4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ5','J5', 'J5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK1','K1', 'K1' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK2','K2', 'K2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK3','K3', 'K3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK4','K4', 'K4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK5','K5', 'K5' );</t>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>SJ6</t>
+  </si>
+  <si>
+    <t>SJ7</t>
+  </si>
+  <si>
+    <t>SJ8</t>
+  </si>
+  <si>
+    <t>SJ9</t>
+  </si>
+  <si>
+    <t>SJ10</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ6','J6', 'J6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ7','J7', 'J7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ8','J8', 'J8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ9','J9', 'J9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SJ10','J10', 'J10' );</t>
+  </si>
+  <si>
+    <t>SK1</t>
+  </si>
+  <si>
+    <t>SK2</t>
+  </si>
+  <si>
+    <t>SK3</t>
+  </si>
+  <si>
+    <t>SK4</t>
+  </si>
+  <si>
+    <t>SK5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK6','K6', 'K6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK7','K7', 'K7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK8','K8', 'K8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK9','K9', 'K9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SK10','K10', 'K10' );</t>
+  </si>
+  <si>
+    <t>SI1</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI1','I1', 'I1' );</t>
+  </si>
+  <si>
+    <t>SI2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI2','I2', 'I2' );</t>
+  </si>
+  <si>
+    <t>SI3</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI3','I3', 'I3' );</t>
+  </si>
+  <si>
+    <t>SI4</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI4','I4', 'I4' );</t>
+  </si>
+  <si>
+    <t>SI5</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI5','I5', 'I5' );</t>
+  </si>
+  <si>
+    <t>SI6</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI6','I6', 'I6' );</t>
+  </si>
+  <si>
+    <t>SI7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI7','I7', 'I7' );</t>
+  </si>
+  <si>
+    <t>SI8</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI8','I8', 'I8' );</t>
+  </si>
+  <si>
+    <t>SI9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI9','I9', 'I9' );</t>
+  </si>
+  <si>
+    <t>SI10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SI10','I10', 'I10' );</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL1','L1', 'L1' );</t>
+  </si>
+  <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>SL3</t>
+  </si>
+  <si>
+    <t>SL4</t>
+  </si>
+  <si>
+    <t>SL5</t>
+  </si>
+  <si>
+    <t>SL6</t>
+  </si>
+  <si>
+    <t>SL7</t>
+  </si>
+  <si>
+    <t>SL8</t>
+  </si>
+  <si>
+    <t>SL9</t>
+  </si>
+  <si>
+    <t>SL10</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>SM1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL2','L2', 'L2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL3','L3', 'L3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL4','L4', 'L4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL5','L5', 'L5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL6','L6', 'L6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL7','L7', 'L7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL8','L8', 'L8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL9','L9', 'L9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SL10','L10', 'L10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM1','M1','M1' );</t>
+  </si>
+  <si>
+    <t>SM2</t>
+  </si>
+  <si>
+    <t>SM3</t>
+  </si>
+  <si>
+    <t>SM4</t>
+  </si>
+  <si>
+    <t>SM5</t>
+  </si>
+  <si>
+    <t>SM6</t>
+  </si>
+  <si>
+    <t>SM7</t>
+  </si>
+  <si>
+    <t>SM8</t>
+  </si>
+  <si>
+    <t>SM9</t>
+  </si>
+  <si>
+    <t>SM10</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM2','M2','M2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM3','M3','M3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM4','M4','M4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM5','M5','M5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM6','M6','M6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM7','M7','M7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM8','M8','M8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM9','M9','M9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SM10','M10','M10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN1','N1','N1' );</t>
+  </si>
+  <si>
+    <t>SN1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>SN2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>SN3</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>SN4</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>SN5</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>SN6</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>SN7</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>SN8</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>SN9</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>SN10</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN2','N2','N2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN3','N3','N3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN4','N4','N4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN5','N5','N5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN6','N6','N6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN7','N7','N7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN8','N8','N8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN9','N9','N9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SN10','N10','N10' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO1','O1','O1' );</t>
+  </si>
+  <si>
+    <t>SO1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>SO5</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>SO6</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>SO7</t>
+  </si>
+  <si>
+    <t>O7</t>
+  </si>
+  <si>
+    <t>SO8</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>SO9</t>
+  </si>
+  <si>
+    <t>O9</t>
+  </si>
+  <si>
+    <t>SO10</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO2','O2','O2' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO3','O3','O3' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO4','O4','O4' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO5','O5','O5' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO6','O6','O6' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO7','O7','O7' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO8','O8','O8' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO9','O9','O9' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT','SO10','O10','O10' );</t>
+  </si>
+  <si>
+    <t>SEAT TYPE</t>
+  </si>
+  <si>
+    <t>SET1</t>
+  </si>
+  <si>
+    <t>SET2</t>
+  </si>
+  <si>
+    <t>SET3</t>
+  </si>
+  <si>
+    <t>Thường</t>
+  </si>
+  <si>
+    <t>Vip (Prime)</t>
+  </si>
+  <si>
+    <t>Đôi</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT TYPE','SET1','Thường','Normal' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT TYPE','SET2','Vip (Prime)','Vip (Prime)' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO ALLCODES (ALLCODES.type,ALLCODES.keyMap, ALLCODES.valueEn, ALLCODES.valueVi) values ('SEAT TYPE','SET3','Đôi','Doublel' );</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>PR3</t>
+  </si>
+  <si>
+    <t>PR4</t>
+  </si>
+  <si>
+    <t>PR5</t>
+  </si>
+  <si>
+    <t>PR6</t>
+  </si>
+  <si>
+    <t>PR7</t>
+  </si>
+  <si>
+    <t>PR8</t>
+  </si>
+  <si>
+    <t>PR9</t>
+  </si>
+  <si>
+    <t>PR10</t>
+  </si>
+  <si>
+    <t>PR11</t>
+  </si>
+  <si>
+    <t>PR12</t>
+  </si>
+  <si>
+    <t>PR13</t>
+  </si>
+  <si>
+    <t>PR14</t>
+  </si>
+  <si>
+    <t>PR15</t>
+  </si>
+  <si>
+    <t>PR16</t>
+  </si>
+  <si>
+    <t>PR17</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR1',3.02,70000);</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR2','3.24','75000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR3','3.45','80000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR4','3.67','85000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR5','3.88','90000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR6','4.1','95000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR7','4.32','100000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR8','4.53','105000' );</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR9','4.75','110000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR10','4.96','115000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR11','5.18','120000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR12','5.39','125000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR13','6.04','140000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR14','6.47','150000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR15','7.34','170000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR16','8.63','200000');</t>
+  </si>
+  <si>
+    <t>INSERT INTO PRICES (PRICES.type,PRICES.keyMap, PRICES.valueEn, PRICES.valueVi) values ('PRICE','PR17','8.85','205000');</t>
   </si>
 </sst>
 </file>
@@ -491,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -511,6 +2068,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,17 +2383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E55B94-E1E1-4C36-AECD-FB057557F400}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="C204" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="83" customWidth="1"/>
+    <col min="5" max="5" width="143.42578125" customWidth="1"/>
     <col min="17" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1696,6 +3255,3057 @@
         <v>126</v>
       </c>
     </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E93" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E97" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E103" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E124" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E127" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E129" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E130" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E132" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E133" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E134" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E135" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E137" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E138" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E140" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E141" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E142" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E143" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E148" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E149" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E151" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E152" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E154" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E157" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E158" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E161" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E162" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E163" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E164" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E165" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E166" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E167" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E168" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E169" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E170" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E171" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E172" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E173" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E174" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E175" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E176" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E177" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E178" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E179" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E180" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E182" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E183" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E184" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E185" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E186" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E187" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E188" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E189" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E190" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E191" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E192" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E193" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E194" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E195" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E196" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E197" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E198" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E199" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E200" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E201" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E202" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E203" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206">
+        <v>3.02</v>
+      </c>
+      <c r="D206" s="7">
+        <v>70000</v>
+      </c>
+      <c r="E206" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C207">
+        <v>3.24</v>
+      </c>
+      <c r="D207" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E207" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C208">
+        <v>3.45</v>
+      </c>
+      <c r="D208" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E208" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C209">
+        <v>3.67</v>
+      </c>
+      <c r="D209" s="7">
+        <v>85000</v>
+      </c>
+      <c r="E209" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C210">
+        <v>3.88</v>
+      </c>
+      <c r="D210" s="7">
+        <v>90000</v>
+      </c>
+      <c r="E210" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C211">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D211" s="7">
+        <v>95000</v>
+      </c>
+      <c r="E211" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C212">
+        <v>4.32</v>
+      </c>
+      <c r="D212" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E212" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C213">
+        <v>4.53</v>
+      </c>
+      <c r="D213" s="7">
+        <v>105000</v>
+      </c>
+      <c r="E213" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C214">
+        <v>4.75</v>
+      </c>
+      <c r="D214" s="7">
+        <v>110000</v>
+      </c>
+      <c r="E214" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C215">
+        <v>4.96</v>
+      </c>
+      <c r="D215" s="7">
+        <v>115000</v>
+      </c>
+      <c r="E215" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C216">
+        <v>5.18</v>
+      </c>
+      <c r="D216" s="7">
+        <v>120000</v>
+      </c>
+      <c r="E216" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C217">
+        <v>5.39</v>
+      </c>
+      <c r="D217" s="7">
+        <v>125000</v>
+      </c>
+      <c r="E217" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C218">
+        <v>6.04</v>
+      </c>
+      <c r="D218" s="7">
+        <v>140000</v>
+      </c>
+      <c r="E218" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C219">
+        <v>6.47</v>
+      </c>
+      <c r="D219" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E219" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C220">
+        <v>7.34</v>
+      </c>
+      <c r="D220" s="7">
+        <v>170000</v>
+      </c>
+      <c r="E220" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D221" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E221" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C222">
+        <v>8.85</v>
+      </c>
+      <c r="D222" s="7">
+        <v>205000</v>
+      </c>
+      <c r="E222" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
